--- a/Coverage Map - Measurement Based PL Model (n77)/Cell_Parameter.xlsx
+++ b/Coverage Map - Measurement Based PL Model (n77)/Cell_Parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Coverage Map - Measurement Based PL Model (3.5G)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Coverage Map - Measurement Based PL Model (n77)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="6_{659695D7-C131-4C96-991A-B5E8ED874541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79CAB5C8-7B55-471E-A364-CEC24FF3B283}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="6_{659695D7-C131-4C96-991A-B5E8ED874541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6935423D-23A7-4951-96E4-CD7EDB06D9E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>270</v>
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="C7">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="D7">
-        <v>3500</v>
+        <v>3900</v>
       </c>
     </row>
   </sheetData>
